--- a/database/files/business-upload/dollar_upload_template.xlsx
+++ b/database/files/business-upload/dollar_upload_template.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample Template Profitablity" sheetId="1" r:id="rId1"/>
+    <sheet name="Dollar Upload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
